--- a/inst/exdata/sampleDataRegNonWhite.xlsx
+++ b/inst/exdata/sampleDataRegNonWhite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="100">
   <si>
     <t xml:space="preserve">activity</t>
   </si>
@@ -104,9 +104,6 @@
     <t xml:space="preserve">field</t>
   </si>
   <si>
-    <t xml:space="preserve">attendance</t>
-  </si>
-  <si>
     <t xml:space="preserve">status</t>
   </si>
   <si>
@@ -171,6 +168,42 @@
   </si>
   <si>
     <t xml:space="preserve">dcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_12</t>
   </si>
   <si>
     <t xml:space="preserve">10-168</t>
@@ -301,7 +334,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="MM/DD/YYYY"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -395,12 +428,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -412,20 +445,21 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="8" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,7 +532,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
   </cols>
@@ -566,26 +600,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD1048576"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG1" activeCellId="0" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="13.01"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="30" min="12" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="32" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="13.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="11" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="31" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -602,21 +637,21 @@
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -661,7 +696,7 @@
       <c r="Y1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AA1" s="4" t="s">
@@ -670,49 +705,82 @@
       <c r="AB1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="0" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>14000</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="5" t="n">
+      <c r="H2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>42595</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>1</v>
@@ -747,14 +815,43 @@
       <c r="Y2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z2" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="AD2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -777,26 +874,26 @@
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,10 +904,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,10 +918,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,10 +932,10 @@
         <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,10 +946,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,10 +960,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,10 +974,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,10 +988,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -905,10 +1002,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,10 +1016,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,10 +1030,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,10 +1044,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,10 +1058,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,10 +1072,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,10 +1100,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,10 +1114,10 @@
         <v>27</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,10 +1128,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,10 +1142,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,10 +1156,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,10 +1170,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,10 +1184,10 @@
         <v>24</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,10 +1198,10 @@
         <v>25</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,10 +1212,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,10 +1226,10 @@
         <v>31</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1157,22 +1254,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>400</v>

--- a/inst/exdata/sampleDataRegNonWhite.xlsx
+++ b/inst/exdata/sampleDataRegNonWhite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
   <si>
     <t xml:space="preserve">activity</t>
   </si>
@@ -206,6 +206,12 @@
     <t xml:space="preserve">a_12</t>
   </si>
   <si>
+    <t xml:space="preserve">VL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
     <t xml:space="preserve">10-168</t>
   </si>
   <si>
@@ -225,6 +231,9 @@
   </si>
   <si>
     <t xml:space="preserve">TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">Month</t>
@@ -446,7 +455,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="AP1:AQ2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -529,10 +538,10 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="AP1:AQ2 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
   </cols>
@@ -600,10 +609,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG1" activeCellId="0" sqref="AG1"/>
+      <selection pane="topLeft" activeCell="AP1" activeCellId="0" sqref="AP1:AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -744,40 +753,46 @@
       <c r="AO1" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AP1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>14000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>42595</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>1</v>
@@ -850,6 +865,12 @@
       </c>
       <c r="AO2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -871,10 +892,10 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="1" sqref="AP1:AQ2 I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.71"/>
@@ -884,16 +905,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -904,10 +925,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -918,10 +939,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -932,10 +953,10 @@
         <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,10 +967,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,10 +981,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -974,10 +995,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,10 +1009,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,10 +1037,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,10 +1051,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,10 +1065,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,10 +1079,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,10 +1093,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,10 +1107,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1100,10 +1121,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,10 +1135,10 @@
         <v>27</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,10 +1149,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,10 +1163,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,10 +1177,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,10 +1191,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,10 +1205,10 @@
         <v>24</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,10 +1219,10 @@
         <v>25</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1212,10 +1233,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,10 +1247,10 @@
         <v>31</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1251,25 +1272,25 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="AP1:AQ2 C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>400</v>

--- a/inst/exdata/sampleDataRegNonWhite.xlsx
+++ b/inst/exdata/sampleDataRegNonWhite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="136">
   <si>
     <t xml:space="preserve">activity</t>
   </si>
@@ -158,16 +158,131 @@
     <t xml:space="preserve">DEC</t>
   </si>
   <si>
-    <t xml:space="preserve">d.rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d.ho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d.rh</t>
-  </si>
-  <si>
     <t xml:space="preserve">dcc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">d.rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rd_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.ho_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.rh_12</t>
   </si>
   <si>
     <t xml:space="preserve">a_1</t>
@@ -345,7 +460,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -366,6 +481,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -427,7 +547,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -455,7 +575,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="AP1:AQ2 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -538,10 +658,10 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="AP1:AQ2 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
   </cols>
@@ -609,10 +729,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:BX2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP1" activeCellId="0" sqref="AP1:AQ2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -624,9 +744,15 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="13.02"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="11" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="31" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="11" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="38" min="28" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="40" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="62" min="52" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="64" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,19 +831,19 @@
       <c r="Y1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AE1" s="1" t="s">
@@ -759,40 +885,139 @@
       <c r="AQ1" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>14000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>42595</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>1</v>
@@ -830,47 +1055,47 @@
       <c r="Y2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AD2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>69</v>
+      <c r="BK2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -892,10 +1117,10 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="1" sqref="AP1:AQ2 I19"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.71"/>
@@ -905,16 +1130,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,10 +1150,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,10 +1164,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,10 +1178,10 @@
         <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,10 +1192,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,10 +1206,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,10 +1220,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,10 +1248,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1037,10 +1262,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1051,10 +1276,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,10 +1290,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,10 +1304,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,10 +1318,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,10 +1332,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,10 +1346,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,10 +1360,10 @@
         <v>27</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,10 +1374,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1163,10 +1388,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1177,10 +1402,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,10 +1416,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,10 +1430,10 @@
         <v>24</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1219,10 +1444,10 @@
         <v>25</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,10 +1458,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,10 +1472,10 @@
         <v>31</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1272,25 +1497,25 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="AP1:AQ2 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>400</v>

--- a/inst/exdata/sampleDataRegNonWhite.xlsx
+++ b/inst/exdata/sampleDataRegNonWhite.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">OT</t>
   </si>
   <si>
-    <t xml:space="preserve">costCode</t>
+    <t xml:space="preserve">costCenter</t>
   </si>
   <si>
     <t xml:space="preserve">Materials Handling General</t>
@@ -161,23 +161,7 @@
     <t xml:space="preserve">dcc</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">d.rd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_1</t>
-    </r>
+    <t xml:space="preserve">d.rd_1</t>
   </si>
   <si>
     <t xml:space="preserve">d.rd_2</t>
@@ -460,7 +444,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -481,11 +465,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -547,7 +526,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -575,7 +554,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -661,7 +640,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
   </cols>
@@ -731,8 +710,8 @@
   </sheetPr>
   <dimension ref="A1:BX2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1120,7 +1099,7 @@
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.71"/>
@@ -1500,7 +1479,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/inst/exdata/sampleDataRegNonWhite.xlsx
+++ b/inst/exdata/sampleDataRegNonWhite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="147">
   <si>
     <t xml:space="preserve">activity</t>
   </si>
@@ -158,7 +158,40 @@
     <t xml:space="preserve">DEC</t>
   </si>
   <si>
-    <t xml:space="preserve">dcc</t>
+    <t xml:space="preserve">dcc_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcc_12</t>
   </si>
   <si>
     <t xml:space="preserve">d.rd_1</t>
@@ -640,7 +673,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
   </cols>
@@ -708,10 +741,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BX2"/>
+  <dimension ref="A1:CI2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD10" activeCellId="0" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -725,13 +758,15 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="11" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="38" min="28" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="40" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="62" min="52" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="64" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="37" min="28" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="49" min="39" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="61" min="51" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="73" min="63" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="75" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,7 +848,7 @@
       <c r="Z1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AB1" s="1" t="s">
@@ -846,7 +881,7 @@
       <c r="AK1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>56</v>
       </c>
       <c r="AM1" s="1" t="s">
@@ -921,7 +956,7 @@
       <c r="BJ1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="BL1" s="1" t="s">
@@ -954,7 +989,7 @@
       <c r="BU1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="0" t="s">
         <v>92</v>
       </c>
       <c r="BW1" s="1" t="s">
@@ -963,40 +998,73 @@
       <c r="BX1" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="BY1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>14000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>42595</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>1</v>
@@ -1034,47 +1102,47 @@
       <c r="Y2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BK2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="BV2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="BW2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>102</v>
+      <c r="BW2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1167,7 @@
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.71"/>
@@ -1109,16 +1177,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,10 +1211,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,10 +1225,10 @@
         <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,10 +1239,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,10 +1253,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,10 +1267,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,10 +1281,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,10 +1295,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,10 +1309,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,10 +1323,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,10 +1337,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,10 +1351,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,10 +1365,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,10 +1379,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,10 +1393,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,10 +1407,10 @@
         <v>27</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,10 +1421,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,10 +1435,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,10 +1449,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,10 +1463,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,10 +1477,10 @@
         <v>24</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,10 +1491,10 @@
         <v>25</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1437,10 +1505,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,10 +1519,10 @@
         <v>31</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1479,22 +1547,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>400</v>

--- a/inst/exdata/sampleDataRegNonWhite.xlsx
+++ b/inst/exdata/sampleDataRegNonWhite.xlsx
@@ -122,40 +122,40 @@
     <t xml:space="preserve">isRF</t>
   </si>
   <si>
-    <t xml:space="preserve">JAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEC</t>
+    <t xml:space="preserve">dependents_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependents_12</t>
   </si>
   <si>
     <t xml:space="preserve">dcc_1</t>
@@ -580,7 +580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -663,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -673,7 +673,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
   </cols>
@@ -737,14 +737,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:CI2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD10" activeCellId="0" sqref="AD10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -756,7 +756,12 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="13.02"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="11" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="14" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="13.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="37" min="28" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="8.67"/>
@@ -1157,7 +1162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1167,7 +1172,7 @@
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.71"/>
@@ -1537,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1547,7 +1552,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
